--- a/taxlien.xlsx
+++ b/taxlien.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>Parcel#</t>
   </si>
@@ -28,15 +28,14 @@
     <t>Type</t>
   </si>
   <si>
-    <t>00002763</t>
-  </si>
-  <si>
-    <t>BOOTH, MARVIN</t>
-  </si>
-  <si>
-    <t>C/O JANICE NERO_x000D_
-628 MORROW RD_x000D_
-LAKE CHARLES LA 70611-5222</t>
+    <t>00584320</t>
+  </si>
+  <si>
+    <t>108 REAL ESTATE LLC</t>
+  </si>
+  <si>
+    <t>2717 NOTTOWAY LN_x000D_
+LAKE CHARLES LA 70601</t>
   </si>
   <si>
     <t>REAL ESTATE</t>
@@ -57,10 +56,7 @@
     <t>Exempt</t>
   </si>
   <si>
-    <t>003 RURAL LOT(S)</t>
-  </si>
-  <si>
-    <t>098 MANUFACTURED HOME</t>
+    <t>001 CITY LOT(S)</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -84,16 +80,10 @@
     <t>Page</t>
   </si>
   <si>
-    <t>TAX REDEMPTION</t>
-  </si>
-  <si>
-    <t>TAX SALE STATE</t>
-  </si>
-  <si>
-    <t>8/29/2016</t>
-  </si>
-  <si>
-    <t>6/29/2016</t>
+    <t>CASH SALE</t>
+  </si>
+  <si>
+    <t>1/11/2019</t>
   </si>
   <si>
     <t>Homestead?</t>
@@ -120,87 +110,34 @@
     <t>NO</t>
   </si>
   <si>
+    <t>HOLT, GARY JACKSON ET UX</t>
+  </si>
+  <si>
+    <t>HOLT, JACQUITA JUNE</t>
+  </si>
+  <si>
     <t>YES</t>
   </si>
   <si>
     <t>1/1/1980</t>
   </si>
   <si>
-    <t>00052590</t>
-  </si>
-  <si>
-    <t>ROBINSON, JAMIE JUDE ET UX</t>
-  </si>
-  <si>
-    <t>8668 BUD STELL RD_x000D_
-LAKE CHARLES LA 70605-0000</t>
-  </si>
-  <si>
-    <t>004 AG2</t>
-  </si>
-  <si>
-    <t>CORRECTION</t>
-  </si>
-  <si>
-    <t>WARRANTY DEED</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>CASH SALE</t>
-  </si>
-  <si>
-    <t>1/30/2017</t>
-  </si>
-  <si>
-    <t>4/24/2007</t>
-  </si>
-  <si>
-    <t>9/12/2005</t>
-  </si>
-  <si>
-    <t>4/20/2004</t>
-  </si>
-  <si>
-    <t>ROBINSON, NATALIE MARIE KOCIK</t>
-  </si>
-  <si>
-    <t>SMITH, ROBERT KIMBALL</t>
-  </si>
-  <si>
-    <t>00160997</t>
-  </si>
-  <si>
-    <t>CARROLL, LENORE (NMN) LAMBDIN</t>
-  </si>
-  <si>
-    <t>517 E BRIMSTONE_x000D_
-SULPHUR LA 70663-0000</t>
-  </si>
-  <si>
-    <t>091 DUPLEX</t>
-  </si>
-  <si>
-    <t>10/27/2016</t>
-  </si>
-  <si>
-    <t>9/21/2016</t>
-  </si>
-  <si>
-    <t>6/5/2008</t>
-  </si>
-  <si>
-    <t>BENOIT INVESTMENT PROPERTIES LLC</t>
-  </si>
-  <si>
-    <t>ABC HOLDINGS LLC</t>
-  </si>
-  <si>
-    <t>BELLARD, MELISSA CECILE RICHARD</t>
-  </si>
-  <si>
-    <t>BELLARD, JIMMY ET UX</t>
+    <t>00584312</t>
+  </si>
+  <si>
+    <t>DONATION</t>
+  </si>
+  <si>
+    <t>12/11/2012</t>
+  </si>
+  <si>
+    <t>DELTA SCHOOL OF BUSINESS, LAKE CHARLES INC ET AL</t>
+  </si>
+  <si>
+    <t>HOLT, GARY JACKSON AND</t>
+  </si>
+  <si>
+    <t>3/13/2013</t>
   </si>
 </sst>
 </file>
@@ -558,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,46 +530,46 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>2</v>
@@ -661,13 +598,13 @@
         <v>13</v>
       </c>
       <c r="H2">
-        <v>2380</v>
+        <v>3620</v>
       </c>
       <c r="I2">
-        <v>23800</v>
+        <v>36200</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -676,34 +613,34 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3243276</v>
+        <v>3341276</v>
       </c>
       <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
       <c r="P2">
-        <v>0</v>
+        <v>135370</v>
       </c>
       <c r="R2">
-        <v>4139</v>
+        <v>4303</v>
       </c>
       <c r="S2">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="T2" s="1">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2">
         <v>100</v>
@@ -712,7 +649,7 @@
         <v>100</v>
       </c>
       <c r="Z2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -723,10 +660,10 @@
         <v>14</v>
       </c>
       <c r="H3">
-        <v>1920</v>
+        <v>3620</v>
       </c>
       <c r="I3">
-        <v>19200</v>
+        <v>36200</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -734,46 +671,55 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>3234608</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3">
-        <v>601</v>
-      </c>
-      <c r="R3">
-        <v>4124</v>
-      </c>
-      <c r="S3">
-        <v>451</v>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3">
+        <v>50</v>
+      </c>
+      <c r="Y3">
+        <v>100</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="F4" s="1">
+      <c r="T4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>4300</v>
-      </c>
-      <c r="I4">
-        <v>43000</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4">
+        <v>50</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -805,46 +751,46 @@
         <v>12</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="U7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>2</v>
@@ -855,13 +801,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -870,16 +816,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>400</v>
+        <v>7870</v>
       </c>
       <c r="I8">
-        <v>400</v>
+        <v>78700</v>
       </c>
       <c r="J8">
-        <v>9.9</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -888,43 +834,43 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3262743</v>
+        <v>3341276</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>135370</v>
       </c>
       <c r="R8">
-        <v>4168</v>
+        <v>4303</v>
       </c>
       <c r="S8">
-        <v>810</v>
+        <v>296</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
       </c>
       <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" t="s">
         <v>33</v>
       </c>
-      <c r="V8" t="s">
-        <v>37</v>
-      </c>
-      <c r="W8" t="s">
-        <v>34</v>
-      </c>
       <c r="X8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y8">
         <v>100</v>
       </c>
       <c r="Z8" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -932,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9">
-        <v>400</v>
+        <v>7870</v>
       </c>
       <c r="I9">
-        <v>400</v>
+        <v>78700</v>
       </c>
       <c r="J9">
-        <v>9.9</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,31 +896,31 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2807679</v>
+        <v>3075805</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="P9">
-        <v>275000</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>3333</v>
+        <v>3838</v>
       </c>
       <c r="S9">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="T9" s="1">
         <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s">
         <v>33</v>
@@ -983,410 +929,65 @@
         <v>50</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="L10" s="1">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>2734612</v>
-      </c>
-      <c r="N10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>3201</v>
-      </c>
-      <c r="S10">
-        <v>706</v>
-      </c>
       <c r="T10" s="1">
         <v>2</v>
       </c>
       <c r="U10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V10" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="W10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10">
+        <v>50</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="s">
         <v>34</v>
       </c>
-      <c r="X10">
-        <v>100</v>
-      </c>
-      <c r="Y10">
-        <v>100</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>35</v>
-      </c>
       <c r="AA10" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:28">
-      <c r="L11" s="1">
+      <c r="T11" s="1">
         <v>3</v>
       </c>
-      <c r="N11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11">
-        <v>190000</v>
-      </c>
-      <c r="R11">
-        <v>3079</v>
-      </c>
-      <c r="S11">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y14" s="1" t="s">
+      <c r="U11" t="s">
         <v>30</v>
       </c>
-      <c r="Z14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="V11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
+        <v>30</v>
+      </c>
+      <c r="X11">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>750</v>
-      </c>
-      <c r="I15">
-        <v>7500</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>3251142</v>
-      </c>
-      <c r="N15" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15">
-        <v>23000</v>
-      </c>
-      <c r="R15">
-        <v>4152</v>
-      </c>
-      <c r="S15">
-        <v>209</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" t="s">
-        <v>33</v>
-      </c>
-      <c r="V15" t="s">
-        <v>51</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="Y11">
+        <v>100</v>
+      </c>
+      <c r="Z11" t="s">
         <v>34</v>
       </c>
-      <c r="X15">
-        <v>100</v>
-      </c>
-      <c r="Y15">
-        <v>100</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16">
-        <v>14360</v>
-      </c>
-      <c r="I16">
-        <v>143600</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3246478</v>
-      </c>
-      <c r="N16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P16">
-        <v>55000</v>
-      </c>
-      <c r="R16">
-        <v>4144</v>
-      </c>
-      <c r="S16">
-        <v>673</v>
-      </c>
-      <c r="T16" s="1">
-        <v>1</v>
-      </c>
-      <c r="U16" t="s">
-        <v>33</v>
-      </c>
-      <c r="V16" t="s">
-        <v>57</v>
-      </c>
-      <c r="W16" t="s">
-        <v>34</v>
-      </c>
-      <c r="X16">
-        <v>100</v>
-      </c>
-      <c r="Y16">
-        <v>100</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="6:27">
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17">
-        <v>15110</v>
-      </c>
-      <c r="I17">
-        <v>151100</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <v>2876875</v>
-      </c>
-      <c r="N17" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17">
-        <v>45000</v>
-      </c>
-      <c r="R17">
-        <v>3503</v>
-      </c>
-      <c r="S17">
-        <v>344</v>
-      </c>
-      <c r="T17" s="1">
-        <v>2</v>
-      </c>
-      <c r="U17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" t="s">
-        <v>58</v>
-      </c>
-      <c r="W17" t="s">
-        <v>34</v>
-      </c>
-      <c r="X17">
-        <v>100</v>
-      </c>
-      <c r="Y17">
-        <v>100</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="6:27">
-      <c r="T18" s="1">
-        <v>3</v>
-      </c>
-      <c r="U18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V18" t="s">
-        <v>59</v>
-      </c>
-      <c r="W18" t="s">
-        <v>33</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="6:27">
-      <c r="T19" s="1">
-        <v>4</v>
-      </c>
-      <c r="U19" t="s">
-        <v>33</v>
-      </c>
-      <c r="V19" t="s">
-        <v>60</v>
-      </c>
-      <c r="W19" t="s">
-        <v>34</v>
-      </c>
-      <c r="X19">
-        <v>100</v>
-      </c>
-      <c r="Y19">
-        <v>100</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>56</v>
+      <c r="AA11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
